--- a/biology/Zoologie/La_Corne_de_brume/La_Corne_de_brume.xlsx
+++ b/biology/Zoologie/La_Corne_de_brume/La_Corne_de_brume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Corne de brume (titre original : The Fog Horn) est un texte de l'auteur américain Ray Bradbury paru en 1951 dans The Saturday Evening Post.
 Le long-métrage fantastique Le Monstre des temps perdus, réalisé par Eugène Lourié en 1953, s'en est inspiré.
@@ -512,9 +524,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par une froide nuit de novembre, deux gardiens de phare, Johnny et le vieux McDunn, discutent des mystères de la mer. Chaque année à cette date, un monstre des Profondeurs répond à l’appel de la Corne de brume, le prenant pour le cri d'un individu de son espèce[1]...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par une froide nuit de novembre, deux gardiens de phare, Johnny et le vieux McDunn, discutent des mystères de la mer. Chaque année à cette date, un monstre des Profondeurs répond à l’appel de la Corne de brume, le prenant pour le cri d'un individu de son espèce...
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les droits du texte sont achetés peu après la parution pour le scénario du film Le Monstre des temps perdus (The Beast from 20,000 Fathoms), premier long-métrage sur un monstre géant réveillé par l'explosion d'une bombe nucléaire. La promotion du film joue sur la notoriété de Ray Bradbury et annonce un scénario « suggéré » par l'auteur.
 </t>
@@ -574,7 +590,9 @@
           <t>Publications en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous le titre La Corne de brume
 dans Les Pommes d'or du soleil, Denoël, coll. « Présence du futur » no 14, 2e trimestre 1956
